--- a/IncorrectList.xlsx
+++ b/IncorrectList.xlsx
@@ -436,10 +436,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -447,12 +447,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>abjure</t>
+          <t>abeyance</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>发誓放弃；抵制，避免</t>
+          <t>中止，搁置</t>
         </is>
       </c>
     </row>
@@ -465,6 +465,90 @@
       <c r="B2" t="inlineStr">
         <is>
           <t>正式放弃(权力、责任)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ad hoc</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>专门的</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>accede</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>赞成</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ad hoc</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>专门的</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>abstruse</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>难以理解的</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>abuse</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>辱骂，抨击；不正当或不合理使用</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>abhor</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>深恶痛绝，极度厌恶</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>acme</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>顶点，极点</t>
         </is>
       </c>
     </row>
